--- a/data/trans_camb/P44-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P44-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,93</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 6,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,52; 63,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; -0,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,74; 21,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 2,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,25; 43,37</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>566,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>390,78%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,49; 175,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>260,06; 1556,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,82; 3,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>114,74; 436,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,25; 40,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>241,43; 838,38</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,12</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 5,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,79; 28,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 3,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,21; 25,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 3,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,56; 26,34</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>252,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>266,54%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,64; 77,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>148,24; 384,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,4; 55,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>172,01; 462,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,31; 48,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>180,95; 377,96</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,81</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,22</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,06</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 7,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,22; 35,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 4,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,2; 26,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 4,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,85; 28,49</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>278,87%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>286,36%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>279,84%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 83,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>190,74; 402,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; 73,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>154,3; 415,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 63,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>194,72; 367,36</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,6</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,42; 36,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 1,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 23,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 2,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,09; 27,78</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,16%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>276,9%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>292,51%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 58,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>224,5; 414,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,54; 29,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>194,26; 380,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 34,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>232,81; 358,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,22</t>
+          <t>56,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,93</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,93</t>
+          <t>42,2</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,52; 63,01</t>
+          <t>22,94; 83,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,74; 21,82</t>
+          <t>12,28; 22,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,25; 43,37</t>
+          <t>19,75; 71,69</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>566,49%</t>
+          <t>929,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>237,78%</t>
+          <t>243,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>390,78%</t>
+          <t>635,88%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>260,06; 1556,01</t>
+          <t>340,73; 3875,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>114,74; 436,81</t>
+          <t>118,21; 447,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>241,43; 838,38</t>
+          <t>276,26; 1734,65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>24,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,12</t>
+          <t>23,46</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,79; 28,19</t>
+          <t>19,12; 28,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,21; 25,86</t>
+          <t>18,47; 26,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,56; 26,34</t>
+          <t>19,96; 26,68</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>252,59%</t>
+          <t>256,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>280,29%</t>
+          <t>283,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>266,54%</t>
+          <t>270,52%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>148,24; 384,31</t>
+          <t>151,15; 387,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>172,01; 462,86</t>
+          <t>174,26; 467,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>180,95; 377,96</t>
+          <t>184,22; 382,44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>30,81</t>
+          <t>35,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>21,22</t>
+          <t>14,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,06</t>
+          <t>22,06</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,25</t>
+          <t>-3,49; 7,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>26,22; 35,11</t>
+          <t>28,77; 40,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,34</t>
+          <t>-5,23; 3,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,2; 26,07</t>
+          <t>-1,28; 28,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,94</t>
+          <t>-2,76; 4,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,85; 28,49</t>
+          <t>6,29; 32,15</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>278,87%</t>
+          <t>321,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>286,36%</t>
+          <t>151,59%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>279,84%</t>
+          <t>217,07%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 83,23</t>
+          <t>-25,72; 98,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>190,74; 402,89</t>
+          <t>182,72; 527,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 73,43</t>
+          <t>-44,57; 45,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>154,3; 415,65</t>
+          <t>-11,67; 329,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,02; 63,59</t>
+          <t>-22,88; 49,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>194,72; 367,36</t>
+          <t>63,18; 354,38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>28,98</t>
+          <t>24,93</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>20,77</t>
+          <t>21,42</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>24,6</t>
+          <t>22,95</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,77</t>
+          <t>-1,6; 10,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>25,42; 36,0</t>
+          <t>18,37; 31,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,92</t>
+          <t>-0,2; 7,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>15,38; 23,57</t>
+          <t>17,58; 25,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,66</t>
+          <t>0,85; 7,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,09; 27,78</t>
+          <t>19,16; 26,08</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>304,16%</t>
+          <t>221,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>276,9%</t>
+          <t>390,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>292,51%</t>
+          <t>297,48%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-13,05; 125,03</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>116,56; 386,24</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 206,82</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>226,63; 735,97</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 115,61</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>193,62; 437,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>36,12</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>19,02</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>27,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 4,77</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 58,27</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 1,92</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 23,24</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 2,66</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 40,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>23,65%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>379,09%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-0,32%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>253,56%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>325,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-4,16; 58,01</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>224,5; 414,82</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>252,0; 738,16</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-25,54; 29,36</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>194,26; 380,05</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>141,61; 345,24</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-6,98; 34,72</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>232,81; 358,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>235,28; 492,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P44-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Edad-trans_camb.xlsx
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,55</t>
+          <t>-3,09; 6,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 83,73</t>
+          <t>22,81; 82,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -0,33</t>
+          <t>-8,24; -0,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,28; 22,38</t>
+          <t>12,51; 22,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,09</t>
+          <t>-4,09; 2,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,75; 71,69</t>
+          <t>19,65; 72,71</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 175,71</t>
+          <t>-35,63; 201,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>340,73; 3875,6</t>
+          <t>353,15; 4132,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,82; 3,31</t>
+          <t>-80,56; 0,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>118,21; 447,64</t>
+          <t>119,93; 458,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 40,55</t>
+          <t>-47,51; 45,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>276,26; 1734,65</t>
+          <t>275,62; 1660,8</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,45</t>
+          <t>-3,09; 5,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,12; 28,56</t>
+          <t>19,26; 28,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,29</t>
+          <t>-3,93; 3,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,15</t>
+          <t>18,16; 26,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,53</t>
+          <t>-2,35; 3,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,96; 26,68</t>
+          <t>20,17; 26,72</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 77,16</t>
+          <t>-26,74; 85,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>151,15; 387,79</t>
+          <t>154,57; 422,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 55,23</t>
+          <t>-40,91; 61,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>174,26; 467,01</t>
+          <t>168,25; 450,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 48,42</t>
+          <t>-22,88; 52,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>184,22; 382,44</t>
+          <t>186,16; 380,82</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 7,7</t>
+          <t>-3,43; 7,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>28,77; 40,85</t>
+          <t>28,85; 40,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,2</t>
+          <t>-4,9; 3,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 28,41</t>
+          <t>-0,42; 28,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,13</t>
+          <t>-2,47; 4,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,29; 32,15</t>
+          <t>7,46; 31,96</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 98,3</t>
+          <t>-25,8; 97,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>182,72; 527,16</t>
+          <t>180,47; 534,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 45,78</t>
+          <t>-41,82; 50,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 329,23</t>
+          <t>-3,76; 325,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 49,82</t>
+          <t>-21,23; 49,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>63,18; 354,38</t>
+          <t>66,43; 338,54</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 10,4</t>
+          <t>-1,33; 10,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>18,37; 31,21</t>
+          <t>17,81; 31,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 7,86</t>
+          <t>-0,1; 7,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>17,58; 25,36</t>
+          <t>17,21; 24,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,35</t>
+          <t>0,71; 7,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,08</t>
+          <t>19,18; 26,14</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 125,03</t>
+          <t>-9,93; 133,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>116,56; 386,24</t>
+          <t>110,78; 392,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 206,82</t>
+          <t>-8,96; 189,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>226,63; 735,97</t>
+          <t>216,78; 683,35</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,34; 115,61</t>
+          <t>6,77; 125,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>193,62; 437,05</t>
+          <t>202,26; 446,04</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,77</t>
+          <t>-0,22; 4,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>25,89; 58,27</t>
+          <t>26,39; 56,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,92</t>
+          <t>-1,92; 1,8</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,63; 23,24</t>
+          <t>10,15; 23,23</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,66</t>
+          <t>-0,68; 2,54</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>20,74; 40,38</t>
+          <t>21,08; 40,55</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 58,01</t>
+          <t>-2,36; 57,89</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>252,0; 738,16</t>
+          <t>260,36; 647,21</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 29,36</t>
+          <t>-22,95; 27,72</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>141,61; 345,24</t>
+          <t>137,19; 336,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 34,72</t>
+          <t>-7,29; 34,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>235,28; 492,18</t>
+          <t>234,27; 487,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P44-Edad-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
